--- a/References.xlsx
+++ b/References.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelle\Desktop\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="9636" xr2:uid="{4E2C81DF-492B-4406-8F5D-9F1FF44DEAB8}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17250" windowHeight="9630" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SemBlock" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="Ontology" sheetId="1" r:id="rId4"/>
     <sheet name="Blockchain" sheetId="2" r:id="rId5"/>
     <sheet name="BFT" sheetId="4" r:id="rId6"/>
-    <sheet name="StateMachine" sheetId="5" r:id="rId7"/>
+    <sheet name="POW" sheetId="8" r:id="rId7"/>
+    <sheet name="POS" sheetId="9" r:id="rId8"/>
+    <sheet name="StateMachine" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
   <si>
     <t>http://www.meteck.org/</t>
   </si>
@@ -274,12 +276,144 @@
   </si>
   <si>
     <t>https://www.slideshare.net/bengardner135/semantic-blockchain</t>
+  </si>
+  <si>
+    <t>http://lamport.azurewebsites.net/pubs/lamport-paxos.pdf</t>
+  </si>
+  <si>
+    <t>The Part-Time Parliament</t>
+  </si>
+  <si>
+    <t>The Byzantine Generals Problem</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en-us/research/wp-content/uploads/2016/12/The-Byzantine-Generals-Problem.pdf</t>
+  </si>
+  <si>
+    <t>Leslie Lamport</t>
+  </si>
+  <si>
+    <t>Practical Byzantine Fault Tolerance</t>
+  </si>
+  <si>
+    <t>https://www.persistent.com/wp-content/uploads/2017/04/WP-Understanding-Blockchain-Consensus-Models.pdf</t>
+  </si>
+  <si>
+    <t>http://pmg.csail.mit.edu/papers/osdi99.pdf</t>
+  </si>
+  <si>
+    <t>barbara Liskov et al</t>
+  </si>
+  <si>
+    <t>Understanding Blockchain Consensus Models</t>
+  </si>
+  <si>
+    <t>https://assets.kpmg.com/content/dam/kpmg/pdf/2016/06/kpmg-blockchain-consensus-mechanism.pdf</t>
+  </si>
+  <si>
+    <t>blockchain consensus mechanism</t>
+  </si>
+  <si>
+    <t>KPMG</t>
+  </si>
+  <si>
+    <t>BlockChain Technology</t>
+  </si>
+  <si>
+    <t>http://scet.berkeley.edu/wp-content/uploads/BlockchainPaper.pdf</t>
+  </si>
+  <si>
+    <t>https://www.capco.com/insights/capco-blog/~/media/Capco/uploads/articlefiles/file_0_1473424097.pdf</t>
+  </si>
+  <si>
+    <t>BLOCKCHAIN CHEAT SHEET GLOSSARY</t>
+  </si>
+  <si>
+    <t>CAPCO</t>
+  </si>
+  <si>
+    <t>Michael Crosby et al</t>
+  </si>
+  <si>
+    <t>Dr. Arati Baliga</t>
+  </si>
+  <si>
+    <t>https://www.zurich.ibm.com/~cca/papers/dti.pdf</t>
+  </si>
+  <si>
+    <t>Distributing Trust on the Internet</t>
+  </si>
+  <si>
+    <t>https://www-01.ibm.com/events/wwe/grp/grp307.nsf/vLookupPDFs/2-3.%20Introduction%20to%20Hyper-ledger%20Fabric%20&amp;%20Exploring%20Blockchain%20Application%20&amp;%20Docker%20Containers/$file/2-3.%20Introduction%20to%20Hyper-ledger%20Fabric%20&amp;%20Exploring%20Blockchain%20Application%20&amp;%20Docker%20Containers.pdf</t>
+  </si>
+  <si>
+    <t>Hyperledger &amp; Smart Contracts</t>
+  </si>
+  <si>
+    <t>Manoj S P</t>
+  </si>
+  <si>
+    <t>https://www-01.ibm.com/events/wwe/grp/grp308.nsf/vLookupPDFs/Blockchain%20Explained/%24file/Blockchain%20Explained.pdf</t>
+  </si>
+  <si>
+    <t>Blockchain Explained -  Making Blockchain Real for Business</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>https://medium.com/@chrshmmmr/consensus-in-blockchain-systems-in-short-691fc7d1fefe</t>
+  </si>
+  <si>
+    <t>Chris Hammerschmidt</t>
+  </si>
+  <si>
+    <t>Consensus in Blockchain Systems. In Short.</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/2482110_Hashcash_-_A_Denial_of_Service_Counter-Measure</t>
+  </si>
+  <si>
+    <t>Hashcash - A Denial of Service Counter-Measure</t>
+  </si>
+  <si>
+    <t>Adam Back</t>
+  </si>
+  <si>
+    <t>Decentralised Currencies Are Probably Impossible</t>
+  </si>
+  <si>
+    <t>Ben Laurie</t>
+  </si>
+  <si>
+    <t>http://www.links.org/files/decentralised-currencies.pdf</t>
+  </si>
+  <si>
+    <t>https://peercoin.net/assets/paper/peercoin-paper.pdf</t>
+  </si>
+  <si>
+    <t>PPCoin: Peer-to-Peer Crypto-Currency with Proof-of-Stake</t>
+  </si>
+  <si>
+    <t>Sunny King, Scott Nadal</t>
+  </si>
+  <si>
+    <t>http://blackcoin.co/blackcoin-pos-protocol-v2-whitepaper.pdf</t>
+  </si>
+  <si>
+    <t>BlackCoin’s Proof-of-Stake Protocol v2</t>
+  </si>
+  <si>
+    <t>Pavel Vasin</t>
+  </si>
+  <si>
+    <t>http://www.the-blockchain.com/docs/Ethereum_white_paper-a_next_generation_smart_contract_and_decentralized_application_platform-vitalik-buterin.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,27 +857,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CDCAB9-861C-4848-9380-F1673A24C184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="7" width="22.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="94.21875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="22.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="94.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="79" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -772,7 +906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -788,7 +922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -808,7 +942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -825,7 +959,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>72</v>
       </c>
@@ -841,11 +975,11 @@
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -862,7 +996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -879,7 +1013,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -895,34 +1029,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{BF85C016-C2AE-4436-9776-C4184B4AD83B}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{23C51183-56C2-4097-9F42-CFBD95C85D05}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B0CC02-4A03-4260-8473-9BEF8A752254}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="22.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="109.6640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="22.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="109.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -948,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -964,7 +1099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -983,7 +1118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1005,7 +1140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1039,7 +1174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1056,7 +1191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1076,7 +1211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1096,7 +1231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1116,7 +1251,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -1136,7 +1271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1153,7 +1288,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -1170,7 +1305,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -1187,7 +1322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>59</v>
       </c>
@@ -1207,7 +1342,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
@@ -1224,7 +1359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
@@ -1244,7 +1379,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>67</v>
       </c>
@@ -1266,44 +1401,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{CDCF5B3E-E6C6-485E-8E2E-A9D4D47E8546}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{CF5BB997-6DDF-4767-9161-7A0050A874B9}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{9CE64D30-6CB0-4F9D-97E3-50122DACA974}"/>
-    <hyperlink ref="H10" r:id="rId4" xr:uid="{C4F33758-D99F-495C-B9F3-C99386360E07}"/>
-    <hyperlink ref="H9" r:id="rId5" xr:uid="{3D31BF7F-DF3E-4DBA-B8E1-290644F9F57D}"/>
-    <hyperlink ref="H12" r:id="rId6" xr:uid="{4A412D6A-A070-4178-90BE-BA9064672B3E}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{28AFD007-853C-4AA8-B992-AA51564F144F}"/>
-    <hyperlink ref="H13" r:id="rId8" xr:uid="{9B01D02F-E812-47E9-A4A6-12A1223E86EB}"/>
-    <hyperlink ref="H14" r:id="rId9" xr:uid="{0FBED833-34EB-4368-AA85-470BCAEB56C9}"/>
-    <hyperlink ref="H15" r:id="rId10" xr:uid="{B85784D6-5B06-4192-A67D-6AE167392278}"/>
-    <hyperlink ref="H17" r:id="rId11" xr:uid="{B61C8C37-1A14-49D2-90EE-A95C4E5CF664}"/>
-    <hyperlink ref="H18" r:id="rId12" xr:uid="{1F134198-FAA2-42AC-B2C3-2545D24F941F}"/>
+    <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="H8" r:id="rId3"/>
+    <hyperlink ref="H10" r:id="rId4"/>
+    <hyperlink ref="H9" r:id="rId5"/>
+    <hyperlink ref="H12" r:id="rId6"/>
+    <hyperlink ref="H11" r:id="rId7"/>
+    <hyperlink ref="H13" r:id="rId8"/>
+    <hyperlink ref="H14" r:id="rId9"/>
+    <hyperlink ref="H15" r:id="rId10"/>
+    <hyperlink ref="H17" r:id="rId11"/>
+    <hyperlink ref="H18" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9374F1B-B129-474C-8FCE-660D29B596FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="109.6640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="109.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1329,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
@@ -1351,13 +1486,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="10"/>
       <c r="E3" s="6"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="E4" s="6"/>
       <c r="F4" s="9"/>
@@ -1370,26 +1505,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46BDAFB-7BB2-4593-84A2-00D101395353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="7" width="22.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="109.6640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="22.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="109.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1415,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1434,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1453,7 +1588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1479,26 +1614,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25BF91B-4DA2-4B2E-ACF3-EC9145516761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="7" width="22.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="109.6640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="22.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="109.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1524,19 +1659,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="10"/>
       <c r="E2" s="6"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="10"/>
       <c r="E3" s="6"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="E4" s="6"/>
       <c r="F4" s="9"/>
@@ -1549,26 +1684,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25083A4D-3E56-4C9B-8A54-FE77CA87EAA6}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="7" width="22.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="109.6640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="22.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="109.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1594,51 +1729,368 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D2" s="10"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="6"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="6"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="7" width="22.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="109.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E3D022-8FF5-4FB8-83FC-9BAC4582B4E0}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="7" width="22.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="109.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="7" width="22.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="109.6640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="22.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="109.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1664,19 +2116,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="10"/>
       <c r="E2" s="6"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="10"/>
       <c r="E3" s="6"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="E4" s="6"/>
       <c r="F4" s="9"/>
